--- a/download.xlsx
+++ b/download.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,16 +399,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B2" t="str">
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -416,143 +416,58 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>430000197001041536</v>
+        <v>420000199306221551</v>
       </c>
       <c r="B3" t="str">
-        <v>钱杰</v>
+        <v>汤超</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>b.hclfmr@uifayplyf.kh</v>
+        <v>g.clncjb@knwzto.na</v>
       </c>
       <c r="E3" t="str">
-        <v>云南省 保山市 腾冲县</v>
+        <v>浙江省 金华市 金东区</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>61000020170824417X</v>
+        <v>440000202002114309</v>
       </c>
       <c r="B4" t="str">
-        <v>朱娟</v>
+        <v>钱涛</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>r.mhussdzp@ciz.sy</v>
+        <v>d.lxthxvdezg@kftp.uy</v>
       </c>
       <c r="E4" t="str">
-        <v>四川省 自贡市 富顺县</v>
+        <v>台湾 澎湖县 白沙乡</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>220000199710186041</v>
+        <v>340000201401080451</v>
       </c>
       <c r="B5" t="str">
-        <v>吕娟</v>
+        <v>吕涛</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>e.krcmcqdzk@hucrad.tel</v>
+        <v>p.fqccjoejh@bwb.ga</v>
       </c>
       <c r="E5" t="str">
-        <v>宁夏回族自治区 银川市 其它区</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>530000198402012902</v>
-      </c>
-      <c r="B6" t="str">
-        <v>易刚</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>w.rsdl@onvn.li</v>
-      </c>
-      <c r="E6" t="str">
-        <v>福建省 三明市 三元区</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>210000199408027160</v>
-      </c>
-      <c r="B7" t="str">
-        <v>范静</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <v>d.kwhqcjrlwe@dypf.gt</v>
-      </c>
-      <c r="E7" t="str">
-        <v>贵州省 贵阳市 息烽县</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>420000201206205685</v>
-      </c>
-      <c r="B8" t="str">
-        <v>王洋</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="str">
-        <v>j.vsu@lmc.org.cn</v>
-      </c>
-      <c r="E8" t="str">
-        <v>澳门特别行政区 离岛 -</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>310000200503076381</v>
-      </c>
-      <c r="B9" t="str">
-        <v>段敏</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="str">
-        <v>q.hqqy@clrbmwfo.lu</v>
-      </c>
-      <c r="E9" t="str">
-        <v>海外 海外 -</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>370000200112172713</v>
-      </c>
-      <c r="B10" t="str">
-        <v>萧秀英2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>l.lwmxb@mgrmh.mv</v>
-      </c>
-      <c r="E10" t="str">
-        <v>广东省 潮州市 潮安区</v>
+        <v>湖北省 随州市 其它区</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>